--- a/docs/mask_template.xlsx
+++ b/docs/mask_template.xlsx
@@ -8,19 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\piranha\constructor_TVR\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{087198EC-89BF-47F8-865C-78FFB7AC9EA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0011D9C-0097-4477-930B-7165C95E489B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="13680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="720" windowWidth="25600" windowHeight="13680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="139">
   <si>
     <t>row_alias</t>
   </si>
@@ -28,6 +39,36 @@
     <t>stroka</t>
   </si>
   <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>Kill all</t>
+  </si>
+  <si>
+    <t>Out only</t>
+  </si>
+  <si>
+    <t>InL1</t>
+  </si>
+  <si>
+    <t>InL2</t>
+  </si>
+  <si>
+    <t>OutL1</t>
+  </si>
+  <si>
+    <t>OutL2</t>
+  </si>
+  <si>
+    <t>Pos</t>
+  </si>
+  <si>
+    <t>Limit</t>
+  </si>
+  <si>
+    <t>MFixS</t>
+  </si>
+  <si>
     <t>Sec 0</t>
   </si>
   <si>
@@ -43,9 +84,183 @@
     <t>W 1</t>
   </si>
   <si>
+    <t>Sec 2</t>
+  </si>
+  <si>
+    <t>V 2</t>
+  </si>
+  <si>
+    <t>W 2</t>
+  </si>
+  <si>
+    <t>Sec 3</t>
+  </si>
+  <si>
+    <t>V 3</t>
+  </si>
+  <si>
+    <t>W 3</t>
+  </si>
+  <si>
+    <t>Sec 4</t>
+  </si>
+  <si>
+    <t>V 4</t>
+  </si>
+  <si>
+    <t>W 4</t>
+  </si>
+  <si>
+    <t>Sec 5</t>
+  </si>
+  <si>
+    <t>V 5</t>
+  </si>
+  <si>
+    <t>W 5</t>
+  </si>
+  <si>
+    <t>Sec 6</t>
+  </si>
+  <si>
+    <t>V 6</t>
+  </si>
+  <si>
+    <t>W 6</t>
+  </si>
+  <si>
+    <t>Sec 7</t>
+  </si>
+  <si>
+    <t>V 7</t>
+  </si>
+  <si>
+    <t>W 7</t>
+  </si>
+  <si>
+    <t>Sec 8</t>
+  </si>
+  <si>
+    <t>V 8</t>
+  </si>
+  <si>
+    <t>W 8</t>
+  </si>
+  <si>
+    <t>Sec 9</t>
+  </si>
+  <si>
+    <t>V 9</t>
+  </si>
+  <si>
+    <t>W 9</t>
+  </si>
+  <si>
+    <t>Sec 10</t>
+  </si>
+  <si>
+    <t>V 10</t>
+  </si>
+  <si>
+    <t>W 10</t>
+  </si>
+  <si>
+    <t>Sec 11</t>
+  </si>
+  <si>
+    <t>V 11</t>
+  </si>
+  <si>
+    <t>W 11</t>
+  </si>
+  <si>
+    <t>Sec 12</t>
+  </si>
+  <si>
+    <t>V 12</t>
+  </si>
+  <si>
+    <t>W 12</t>
+  </si>
+  <si>
+    <t>[k]</t>
+  </si>
+  <si>
+    <t>[a]</t>
+  </si>
+  <si>
+    <t>[b]</t>
+  </si>
+  <si>
+    <t>[n]</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
     <t>SM</t>
   </si>
   <si>
+    <t>SrSv</t>
+  </si>
+  <si>
+    <t>MBlock</t>
+  </si>
+  <si>
+    <t>Mode</t>
+  </si>
+  <si>
+    <t>St.D</t>
+  </si>
+  <si>
+    <t>T.In</t>
+  </si>
+  <si>
+    <t>T.Out</t>
+  </si>
+  <si>
+    <t>NotSet</t>
+  </si>
+  <si>
+    <t>FrId</t>
+  </si>
+  <si>
+    <t>MoveN</t>
+  </si>
+  <si>
+    <t>secIn</t>
+  </si>
+  <si>
+    <t>secOut</t>
+  </si>
+  <si>
+    <t>XN</t>
+  </si>
+  <si>
+    <t>MP</t>
+  </si>
+  <si>
+    <t>xx</t>
+  </si>
+  <si>
     <t>base_long</t>
   </si>
   <si>
@@ -61,55 +276,64 @@
     <t>filter_4_long_&amp;_short</t>
   </si>
   <si>
-    <t>filter_5_long_&amp;_short</t>
-  </si>
-  <si>
-    <t>filter_6_long_&amp;_short</t>
-  </si>
-  <si>
-    <t>filter_7_long_&amp;_short</t>
-  </si>
-  <si>
-    <t>filter_3_long_&amp;_short__2</t>
+    <t>filter_2_long_&amp;_short__2</t>
+  </si>
+  <si>
+    <t>filter_1_long_&amp;_short__2</t>
   </si>
   <si>
     <t>base_short</t>
   </si>
   <si>
-    <t>sample_5462</t>
-  </si>
-  <si>
-    <t>sample_5466</t>
-  </si>
-  <si>
-    <t>sample_5470</t>
-  </si>
-  <si>
-    <t>sample_5474</t>
-  </si>
-  <si>
-    <t>sample_5475</t>
-  </si>
-  <si>
-    <t>sample_5476</t>
-  </si>
-  <si>
-    <t>sample_5477</t>
-  </si>
-  <si>
-    <t>sample_5478</t>
-  </si>
-  <si>
-    <t>sample_5479</t>
-  </si>
-  <si>
-    <t>sample_5480</t>
-  </si>
-  <si>
-    <t>ALZ5</t>
-  </si>
-  <si>
-    <t>12</t>
+    <t>sample_4980</t>
+  </si>
+  <si>
+    <t>sample_4985</t>
+  </si>
+  <si>
+    <t>sample_4990</t>
+  </si>
+  <si>
+    <t>sample_4991</t>
+  </si>
+  <si>
+    <t>sample_4992</t>
+  </si>
+  <si>
+    <t>sample_4995</t>
+  </si>
+  <si>
+    <t>sample_4996</t>
+  </si>
+  <si>
+    <t>sample_4997</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>4992</t>
+  </si>
+  <si>
+    <t>4991</t>
+  </si>
+  <si>
+    <t>4996</t>
+  </si>
+  <si>
+    <t>4990</t>
+  </si>
+  <si>
+    <t>4997</t>
+  </si>
+  <si>
+    <t>4995</t>
+  </si>
+  <si>
+    <t>SGZ5</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
   <si>
     <t>0</t>
@@ -118,22 +342,112 @@
     <t>MMZ5</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>1.7</t>
-  </si>
-  <si>
-    <t>3.4</t>
-  </si>
-  <si>
-    <t>1;1;0.1;0.5</t>
-  </si>
-  <si>
-    <t>1;1;0.001;0.1</t>
-  </si>
-  <si>
-    <t>10;10;0.1;0.5</t>
+    <t>15</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>0.001</t>
+  </si>
+  <si>
+    <t>1;600</t>
+  </si>
+  <si>
+    <t>5;600</t>
+  </si>
+  <si>
+    <t>10;60</t>
+  </si>
+  <si>
+    <t>2;6</t>
+  </si>
+  <si>
+    <t>2;600</t>
+  </si>
+  <si>
+    <t>0.003</t>
+  </si>
+  <si>
+    <t>0.7</t>
+  </si>
+  <si>
+    <t>0.15</t>
+  </si>
+  <si>
+    <t>0.0001</t>
+  </si>
+  <si>
+    <t>0.002</t>
+  </si>
+  <si>
+    <t>0.00001</t>
+  </si>
+  <si>
+    <t>-0.0001</t>
+  </si>
+  <si>
+    <t>1;10000</t>
+  </si>
+  <si>
+    <t>2;60</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>45225;45225; (1)</t>
+  </si>
+  <si>
+    <t>45187;45187; (1)</t>
+  </si>
+  <si>
+    <t>45247.2;2898.36; (5)</t>
+  </si>
+  <si>
+    <t>45265.2;45265.2; (10)</t>
+  </si>
+  <si>
+    <t>45206;45206; (2)</t>
+  </si>
+  <si>
+    <t>45275;45275; (2)</t>
+  </si>
+  <si>
+    <t>45265.2;2892.375; (10)</t>
+  </si>
+  <si>
+    <t>5;10;0.1;0.5</t>
+  </si>
+  <si>
+    <t>5;10;0.01;0.8</t>
+  </si>
+  <si>
+    <t>100;10000</t>
+  </si>
+  <si>
+    <t>-1</t>
+  </si>
+  <si>
+    <t>2021.08.30 07:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09:00:20-23:50:00 </t>
+  </si>
+  <si>
+    <t>09:00:20-09:30:00 09:31:00-10:30:00 10:31:00-11:30:00 11:31:00-12:30:00 12:31:00-13:30:00 13:31:00-14:30:00 14:31:00-15:30:00 15:31:00-16:30:00 16:31:00-17:30:00 17:31:00-18:30:00 18:31:00-19:30:00 19:31:00-20:30:00 20:31:00-21:30:00 21:31:00-22:30:00 22:31:00-23:30:00 23:31:00-23:50:00</t>
+  </si>
+  <si>
+    <t>09:00:00-23:50:00</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>3/0</t>
+  </si>
+  <si>
+    <t>0.005</t>
   </si>
 </sst>
 </file>
@@ -535,18 +849,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:BX20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="8" max="8" width="18.26953125" customWidth="1"/>
+    <col min="1" max="1" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:76" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -571,422 +885,798 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>75</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:76" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>76</v>
       </c>
       <c r="B2">
         <v>1000</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:76" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>83</v>
       </c>
       <c r="B3">
         <v>1001</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:76" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>77</v>
       </c>
       <c r="B4">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:76" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5">
         <v>1003</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5">
-        <v>1004</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:76" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="B6">
         <v>1005</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:76" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="B7">
         <v>1006</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:76" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="B8">
-        <v>1008</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
+        <v>1012</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:76" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="B9">
-        <v>1009</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
+        <v>1017</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10">
-        <v>1010</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
+    <row r="13" spans="1:76" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>84</v>
+      </c>
+      <c r="B13">
+        <v>4980</v>
+      </c>
+      <c r="C13" t="s">
+        <v>92</v>
+      </c>
+      <c r="F13" t="s">
+        <v>93</v>
+      </c>
+      <c r="H13" t="s">
+        <v>97</v>
+      </c>
+      <c r="I13" t="s">
+        <v>96</v>
+      </c>
+      <c r="M13" t="s">
+        <v>99</v>
+      </c>
+      <c r="N13" t="s">
+        <v>100</v>
+      </c>
+      <c r="O13" t="s">
+        <v>99</v>
+      </c>
+      <c r="P13" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>100</v>
+      </c>
+      <c r="AZ13" t="s">
+        <v>101</v>
+      </c>
+      <c r="BA13" t="s">
+        <v>101</v>
+      </c>
+      <c r="BB13" t="s">
+        <v>105</v>
+      </c>
+      <c r="BC13" t="s">
+        <v>106</v>
+      </c>
+      <c r="BD13" t="s">
+        <v>105</v>
+      </c>
+      <c r="BE13" t="s">
+        <v>114</v>
+      </c>
+      <c r="BF13" t="s">
+        <v>118</v>
+      </c>
+      <c r="BG13" t="s">
+        <v>100</v>
+      </c>
+      <c r="BI13" t="s">
+        <v>121</v>
+      </c>
+      <c r="BJ13" t="s">
+        <v>128</v>
+      </c>
+      <c r="BM13" t="s">
+        <v>100</v>
+      </c>
+      <c r="BN13" t="s">
+        <v>132</v>
+      </c>
+      <c r="BO13" t="s">
+        <v>133</v>
+      </c>
+      <c r="BP13" t="s">
+        <v>133</v>
+      </c>
+      <c r="BQ13" t="s">
+        <v>101</v>
+      </c>
+      <c r="BS13" t="s">
+        <v>137</v>
+      </c>
+      <c r="BV13" t="s">
+        <v>138</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11">
-        <v>1015</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
+    <row r="14" spans="1:76" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>85</v>
+      </c>
+      <c r="B14">
+        <v>4985</v>
+      </c>
+      <c r="C14" t="s">
+        <v>92</v>
+      </c>
+      <c r="F14" t="s">
+        <v>93</v>
+      </c>
+      <c r="H14" t="s">
+        <v>97</v>
+      </c>
+      <c r="I14" t="s">
+        <v>96</v>
+      </c>
+      <c r="M14" t="s">
+        <v>99</v>
+      </c>
+      <c r="N14" t="s">
+        <v>100</v>
+      </c>
+      <c r="O14" t="s">
+        <v>99</v>
+      </c>
+      <c r="P14" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>100</v>
+      </c>
+      <c r="AZ14" t="s">
+        <v>101</v>
+      </c>
+      <c r="BA14" t="s">
+        <v>101</v>
+      </c>
+      <c r="BB14" t="s">
+        <v>105</v>
+      </c>
+      <c r="BC14" t="s">
+        <v>106</v>
+      </c>
+      <c r="BD14" t="s">
+        <v>105</v>
+      </c>
+      <c r="BE14" t="s">
+        <v>114</v>
+      </c>
+      <c r="BF14" t="s">
+        <v>118</v>
+      </c>
+      <c r="BG14" t="s">
+        <v>100</v>
+      </c>
+      <c r="BI14" t="s">
+        <v>122</v>
+      </c>
+      <c r="BJ14" t="s">
+        <v>128</v>
+      </c>
+      <c r="BM14" t="s">
+        <v>131</v>
+      </c>
+      <c r="BN14" t="s">
+        <v>132</v>
+      </c>
+      <c r="BO14" t="s">
+        <v>134</v>
+      </c>
+      <c r="BP14" t="s">
+        <v>134</v>
+      </c>
+      <c r="BQ14" t="s">
+        <v>101</v>
+      </c>
+      <c r="BS14" t="s">
+        <v>137</v>
+      </c>
+      <c r="BV14" t="s">
+        <v>138</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:76" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>86</v>
       </c>
       <c r="B15">
-        <v>5462</v>
-      </c>
-      <c r="C15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" t="s">
-        <v>28</v>
+        <v>4990</v>
       </c>
       <c r="F15" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" t="s">
-        <v>32</v>
+        <v>94</v>
       </c>
       <c r="H15" t="s">
-        <v>35</v>
+        <v>97</v>
+      </c>
+      <c r="M15" t="s">
+        <v>99</v>
+      </c>
+      <c r="N15" t="s">
+        <v>101</v>
+      </c>
+      <c r="O15" t="s">
+        <v>102</v>
+      </c>
+      <c r="P15" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>103</v>
+      </c>
+      <c r="AZ15" t="s">
+        <v>101</v>
+      </c>
+      <c r="BA15" t="s">
+        <v>101</v>
+      </c>
+      <c r="BC15" t="s">
+        <v>107</v>
+      </c>
+      <c r="BD15" t="s">
+        <v>111</v>
+      </c>
+      <c r="BE15" t="s">
+        <v>115</v>
+      </c>
+      <c r="BF15" t="s">
+        <v>118</v>
+      </c>
+      <c r="BG15" t="s">
+        <v>100</v>
+      </c>
+      <c r="BI15" t="s">
+        <v>123</v>
+      </c>
+      <c r="BJ15" t="s">
+        <v>129</v>
+      </c>
+      <c r="BO15" t="s">
+        <v>135</v>
+      </c>
+      <c r="BP15" t="s">
+        <v>135</v>
+      </c>
+      <c r="BR15" t="s">
+        <v>136</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:76" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>87</v>
       </c>
       <c r="B16">
-        <v>5466</v>
-      </c>
-      <c r="C16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16" t="s">
-        <v>28</v>
+        <v>4991</v>
       </c>
       <c r="F16" t="s">
-        <v>30</v>
-      </c>
-      <c r="G16" t="s">
-        <v>32</v>
-      </c>
-      <c r="H16" t="s">
-        <v>35</v>
+        <v>95</v>
+      </c>
+      <c r="M16" t="s">
+        <v>99</v>
+      </c>
+      <c r="N16" t="s">
+        <v>101</v>
+      </c>
+      <c r="O16" t="s">
+        <v>99</v>
+      </c>
+      <c r="P16" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>101</v>
+      </c>
+      <c r="AZ16" t="s">
+        <v>101</v>
+      </c>
+      <c r="BA16" t="s">
+        <v>101</v>
+      </c>
+      <c r="BC16" t="s">
+        <v>108</v>
+      </c>
+      <c r="BD16" t="s">
+        <v>105</v>
+      </c>
+      <c r="BE16" t="s">
+        <v>105</v>
+      </c>
+      <c r="BF16" t="s">
+        <v>118</v>
+      </c>
+      <c r="BG16" t="s">
+        <v>100</v>
+      </c>
+      <c r="BI16" t="s">
+        <v>124</v>
+      </c>
+      <c r="BJ16" t="s">
+        <v>129</v>
+      </c>
+      <c r="BO16" t="s">
+        <v>135</v>
+      </c>
+      <c r="BP16" t="s">
+        <v>135</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="B17">
-        <v>5470</v>
-      </c>
-      <c r="C17" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17" t="s">
-        <v>28</v>
+        <v>4992</v>
       </c>
       <c r="F17" t="s">
-        <v>30</v>
-      </c>
-      <c r="G17" t="s">
-        <v>30</v>
-      </c>
-      <c r="H17" t="s">
-        <v>36</v>
+        <v>96</v>
+      </c>
+      <c r="M17" t="s">
+        <v>99</v>
+      </c>
+      <c r="N17" t="s">
+        <v>101</v>
+      </c>
+      <c r="O17" t="s">
+        <v>99</v>
+      </c>
+      <c r="P17" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>101</v>
+      </c>
+      <c r="AZ17" t="s">
+        <v>101</v>
+      </c>
+      <c r="BA17" t="s">
+        <v>101</v>
+      </c>
+      <c r="BC17" t="s">
+        <v>109</v>
+      </c>
+      <c r="BD17" t="s">
+        <v>112</v>
+      </c>
+      <c r="BE17" t="s">
+        <v>114</v>
+      </c>
+      <c r="BF17" t="s">
+        <v>119</v>
+      </c>
+      <c r="BG17" t="s">
+        <v>120</v>
+      </c>
+      <c r="BI17" t="s">
+        <v>125</v>
+      </c>
+      <c r="BJ17" t="s">
+        <v>129</v>
+      </c>
+      <c r="BK17" t="s">
+        <v>130</v>
+      </c>
+      <c r="BO17" t="s">
+        <v>135</v>
+      </c>
+      <c r="BP17" t="s">
+        <v>135</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>89</v>
       </c>
       <c r="B18">
-        <v>5474</v>
-      </c>
-      <c r="C18" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" t="s">
-        <v>30</v>
-      </c>
-      <c r="E18" t="s">
-        <v>31</v>
-      </c>
-      <c r="F18" t="s">
-        <v>32</v>
-      </c>
-      <c r="G18" t="s">
-        <v>33</v>
-      </c>
-      <c r="H18" t="s">
-        <v>36</v>
+        <v>4995</v>
+      </c>
+      <c r="M18" t="s">
+        <v>99</v>
+      </c>
+      <c r="N18" t="s">
+        <v>101</v>
+      </c>
+      <c r="O18" t="s">
+        <v>99</v>
+      </c>
+      <c r="P18" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>100</v>
+      </c>
+      <c r="AZ18" t="s">
+        <v>100</v>
+      </c>
+      <c r="BA18" t="s">
+        <v>100</v>
+      </c>
+      <c r="BC18" t="s">
+        <v>110</v>
+      </c>
+      <c r="BD18" t="s">
+        <v>113</v>
+      </c>
+      <c r="BE18" t="s">
+        <v>116</v>
+      </c>
+      <c r="BF18" t="s">
+        <v>118</v>
+      </c>
+      <c r="BG18" t="s">
+        <v>100</v>
+      </c>
+      <c r="BI18" t="s">
+        <v>126</v>
+      </c>
+      <c r="BJ18" t="s">
+        <v>129</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="B19">
-        <v>5475</v>
-      </c>
-      <c r="C19" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" t="s">
-        <v>30</v>
-      </c>
-      <c r="E19" t="s">
-        <v>31</v>
-      </c>
-      <c r="F19" t="s">
-        <v>32</v>
-      </c>
-      <c r="G19" t="s">
-        <v>33</v>
+        <v>4996</v>
       </c>
       <c r="H19" t="s">
-        <v>36</v>
+        <v>98</v>
+      </c>
+      <c r="M19" t="s">
+        <v>99</v>
+      </c>
+      <c r="N19" t="s">
+        <v>101</v>
+      </c>
+      <c r="O19" t="s">
+        <v>102</v>
+      </c>
+      <c r="P19" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ19" t="s">
+        <v>100</v>
+      </c>
+      <c r="BA19" t="s">
+        <v>100</v>
+      </c>
+      <c r="BC19" t="s">
+        <v>108</v>
+      </c>
+      <c r="BD19" t="s">
+        <v>105</v>
+      </c>
+      <c r="BE19" t="s">
+        <v>117</v>
+      </c>
+      <c r="BF19" t="s">
+        <v>118</v>
+      </c>
+      <c r="BG19" t="s">
+        <v>100</v>
+      </c>
+      <c r="BI19" t="s">
+        <v>127</v>
+      </c>
+      <c r="BJ19" t="s">
+        <v>129</v>
+      </c>
+      <c r="BO19" t="s">
+        <v>135</v>
+      </c>
+      <c r="BP19" t="s">
+        <v>135</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>91</v>
       </c>
       <c r="B20">
-        <v>5476</v>
-      </c>
-      <c r="C20" t="s">
-        <v>28</v>
-      </c>
-      <c r="D20" t="s">
-        <v>30</v>
-      </c>
-      <c r="E20" t="s">
-        <v>28</v>
-      </c>
-      <c r="F20" t="s">
-        <v>30</v>
-      </c>
-      <c r="G20" t="s">
-        <v>30</v>
+        <v>4997</v>
       </c>
       <c r="H20" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21">
-        <v>5477</v>
-      </c>
-      <c r="C21" t="s">
-        <v>28</v>
-      </c>
-      <c r="D21" t="s">
-        <v>30</v>
-      </c>
-      <c r="E21" t="s">
-        <v>28</v>
-      </c>
-      <c r="F21" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" t="s">
-        <v>32</v>
-      </c>
-      <c r="H21" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22">
-        <v>5478</v>
-      </c>
-      <c r="C22" t="s">
-        <v>28</v>
-      </c>
-      <c r="D22" t="s">
-        <v>30</v>
-      </c>
-      <c r="E22" t="s">
-        <v>31</v>
-      </c>
-      <c r="F22" t="s">
-        <v>30</v>
-      </c>
-      <c r="G22" t="s">
-        <v>33</v>
-      </c>
-      <c r="H22" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23">
-        <v>5479</v>
-      </c>
-      <c r="C23" t="s">
-        <v>28</v>
-      </c>
-      <c r="D23" t="s">
-        <v>30</v>
-      </c>
-      <c r="E23" t="s">
-        <v>31</v>
-      </c>
-      <c r="F23" t="s">
-        <v>32</v>
-      </c>
-      <c r="G23" t="s">
-        <v>34</v>
-      </c>
-      <c r="H23" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24">
-        <v>5480</v>
-      </c>
-      <c r="C24" t="s">
-        <v>28</v>
-      </c>
-      <c r="D24" t="s">
-        <v>30</v>
-      </c>
-      <c r="E24" t="s">
-        <v>28</v>
-      </c>
-      <c r="F24" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" t="s">
-        <v>32</v>
-      </c>
-      <c r="H24" t="s">
-        <v>36</v>
+        <v>95</v>
+      </c>
+      <c r="M20" t="s">
+        <v>99</v>
+      </c>
+      <c r="N20" t="s">
+        <v>101</v>
+      </c>
+      <c r="O20" t="s">
+        <v>99</v>
+      </c>
+      <c r="P20" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>100</v>
+      </c>
+      <c r="AZ20" t="s">
+        <v>101</v>
+      </c>
+      <c r="BA20" t="s">
+        <v>101</v>
+      </c>
+      <c r="BC20" t="s">
+        <v>110</v>
+      </c>
+      <c r="BD20" t="s">
+        <v>113</v>
+      </c>
+      <c r="BE20" t="s">
+        <v>117</v>
+      </c>
+      <c r="BF20" t="s">
+        <v>118</v>
+      </c>
+      <c r="BG20" t="s">
+        <v>100</v>
+      </c>
+      <c r="BI20" t="s">
+        <v>126</v>
+      </c>
+      <c r="BJ20" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P11">
-    <sortCondition ref="B2:B11"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:BX9">
+    <sortCondition ref="B2:B9"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
